--- a/Data Files/BEP/TestDataEstimate.xlsx
+++ b/Data Files/BEP/TestDataEstimate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1933">
   <si>
     <t>pogoa@pegasystems.com</t>
   </si>
@@ -5815,6 +5815,18 @@
   </si>
   <si>
     <t>BEP-08Aug2018-9</t>
+  </si>
+  <si>
+    <t>BEP-03Oct2018-5</t>
+  </si>
+  <si>
+    <t>BEP-03Oct2018-6</t>
+  </si>
+  <si>
+    <t>BEP-03Oct2018-7</t>
+  </si>
+  <si>
+    <t>BEP-03Oct2018-9</t>
   </si>
 </sst>
 </file>
@@ -6300,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -6342,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1916</v>
+        <v>1930</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -6384,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -6466,7 +6478,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
